--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43677</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43496</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43312</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43131</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,8 +712,11 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -720,17 +724,17 @@
         <v>600</v>
       </c>
       <c r="E8" s="3">
+        <v>600</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -740,8 +744,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,8 +776,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +824,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +854,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +886,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -898,8 +918,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +950,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,26 +963,27 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,26 +993,29 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1900</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1025,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,26 +1041,27 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1037,26 +1071,29 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="G21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1066,8 +1103,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,26 +1135,29 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2000</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1167,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1133,17 +1179,17 @@
         <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1153,8 +1199,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,26 +1231,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1211,26 +1263,29 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1240,8 +1295,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1327,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1359,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1391,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,26 +1423,29 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1385,26 +1455,29 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1487,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,26 +1519,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,31 +1551,34 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43677</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43496</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43312</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43131</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1506,8 +1588,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1604,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,20 +1618,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E41" s="3">
         <v>6500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1648,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,19 +1680,22 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+      <c r="F43" s="3">
+        <v>1500</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1619,8 +1712,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,20 +1744,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,20 +1776,23 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6900</v>
+      </c>
+      <c r="E46" s="3">
         <v>10600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>4400</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,16 +1808,19 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
         <v>1300</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="E47" s="3">
+        <v>1300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1735,19 +1840,22 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1764,8 +1872,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1775,8 +1886,8 @@
       <c r="E49" s="3">
         <v>400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+      <c r="F49" s="3">
+        <v>400</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1793,8 +1904,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1936,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,37 +1968,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,20 +2032,23 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E54" s="3">
         <v>12300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4800</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2064,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2080,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,8 +2094,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1993,8 +2124,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2022,20 +2156,23 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,20 +2188,23 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>1100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1600</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,8 +2220,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2109,37 +2252,43 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2316,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2348,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,20 +2380,23 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E66" s="3">
         <v>1100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1600</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2412,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2428,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2458,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,8 +2490,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2354,8 +2522,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,20 +2554,23 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E72" s="3">
         <v>1700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2586,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2618,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2650,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,20 +2682,23 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E76" s="3">
         <v>11200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3200</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2714,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,31 +2746,34 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43677</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43496</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43312</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43131</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2591,26 +2783,29 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2620,8 +2815,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,8 +2831,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2644,8 +2843,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2662,8 +2861,11 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2893,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2925,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2957,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2989,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,20 +3021,23 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2836,8 +3053,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,19 +3069,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2878,8 +3099,11 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3131,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,20 +3163,23 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>2300</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2965,8 +3195,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3211,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3241,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3273,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3305,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,19 +3337,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>8800</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3123,20 +3369,23 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3152,20 +3401,23 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E102" s="3">
         <v>5600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,6 +3431,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,48 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43496</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43312</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43131</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,29 +716,32 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>600</v>
       </c>
       <c r="F8" s="3">
+        <v>600</v>
+      </c>
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -747,13 +751,16 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>200</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -779,13 +786,16 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -811,8 +821,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -825,8 +838,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -857,8 +871,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,31 +906,34 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>6200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -921,8 +941,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -953,8 +976,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -964,29 +990,30 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>3700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -996,29 +1023,32 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1900</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1028,8 +1058,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1042,8 +1075,9 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1051,20 +1085,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1074,29 +1108,32 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-13200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>1600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,8 +1143,11 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1138,29 +1178,32 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-3100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2000</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1170,29 +1213,32 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
         <v>-100</v>
       </c>
       <c r="F24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,8 +1248,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,29 +1283,32 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-3000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1266,29 +1318,32 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-3000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1298,8 +1353,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1330,8 +1388,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1362,8 +1423,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1394,8 +1458,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,8 +1493,11 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1435,20 +1505,20 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1458,29 +1528,32 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-3000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1490,8 +1563,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1522,29 +1598,32 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-3000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1554,34 +1633,37 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43677</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43496</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43312</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43131</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1591,8 +1673,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1605,8 +1690,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1619,23 +1705,24 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>2300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>6500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,31 +1738,34 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>2200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1683,22 +1773,25 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>2000</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1500</v>
       </c>
       <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+      <c r="G43" s="3">
+        <v>1500</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1715,31 +1808,34 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>0</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1747,23 +1843,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,23 +1878,26 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E46" s="3">
         <v>6900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>10600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>4400</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,19 +1913,22 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
         <v>1300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+      <c r="F47" s="3">
+        <v>1300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1843,22 +1948,25 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>0</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1875,13 +1983,16 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>33800</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
@@ -1889,8 +2000,8 @@
       <c r="F49" s="3">
         <v>400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+      <c r="G49" s="3">
+        <v>400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1907,8 +2018,11 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1939,8 +2053,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1971,17 +2088,20 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1997,14 +2117,17 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2035,23 +2158,26 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E54" s="3">
         <v>10200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4800</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2067,8 +2193,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2081,8 +2210,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2095,31 +2225,32 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -2127,31 +2258,34 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2159,23 +2293,26 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,23 +2328,26 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E60" s="3">
         <v>1500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1600</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2223,8 +2363,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2255,17 +2398,20 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,14 +2427,17 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2319,8 +2468,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2503,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2383,23 +2538,26 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E66" s="3">
         <v>2000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2573,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,8 +2590,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2461,8 +2623,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2493,8 +2658,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2525,8 +2693,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2557,23 +2728,26 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2589,8 +2763,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2621,8 +2798,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2653,8 +2833,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2685,23 +2868,26 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E76" s="3">
         <v>8100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>11200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2717,8 +2903,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2749,34 +2938,37 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43677</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43496</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43312</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43131</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2786,29 +2978,32 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-3000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2818,8 +3013,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2832,13 +3030,14 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -2846,8 +3045,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2864,8 +3063,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2896,8 +3098,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2928,8 +3133,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2960,8 +3168,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2992,8 +3203,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3024,23 +3238,26 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3273,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3070,22 +3290,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3102,8 +3323,11 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3134,8 +3358,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3166,23 +3393,26 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>2300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3198,8 +3428,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3212,8 +3445,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3244,8 +3478,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3276,8 +3513,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3308,8 +3548,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3340,22 +3583,25 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>8800</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3372,23 +3618,26 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3404,23 +3653,26 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3434,6 +3686,9 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,51 +665,52 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43677</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43496</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43312</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43131</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -719,32 +720,35 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>900</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>600</v>
       </c>
       <c r="F8" s="3">
         <v>600</v>
       </c>
       <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -754,17 +758,20 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,17 +796,20 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
@@ -824,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -874,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,17 +926,20 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>6200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -935,8 +955,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -944,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -979,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -991,32 +1017,33 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1026,32 +1053,35 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-14100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1900</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,8 +1091,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1076,32 +1109,33 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1111,32 +1145,35 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-13200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1600</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1181,32 +1221,35 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-14100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,32 +1259,35 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-100</v>
       </c>
       <c r="F24" s="3">
         <v>-100</v>
       </c>
       <c r="G24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H24" s="3">
         <v>400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1251,8 +1297,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1286,32 +1335,35 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-14200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,32 +1373,35 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-11800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1356,8 +1411,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1391,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1426,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1461,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1496,32 +1563,35 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1531,32 +1601,35 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-11800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1566,8 +1639,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1601,32 +1677,35 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-11800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1636,37 +1715,40 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43677</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43496</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43312</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43131</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1676,8 +1758,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1691,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1706,26 +1792,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,17 +1828,20 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E42" s="3">
         <v>2200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1767,8 +1857,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1776,25 +1866,28 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1500</v>
       </c>
       <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+      <c r="H43" s="3">
+        <v>1500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1811,16 +1904,19 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1837,8 +1933,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1846,26 +1942,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E45" s="3">
         <v>1600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1881,26 +1980,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E46" s="3">
         <v>5200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>10600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>4400</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1916,22 +2018,25 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
+      <c r="D47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
         <v>1300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+      <c r="G47" s="3">
+        <v>1300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1951,25 +2056,28 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>6400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1986,16 +2094,19 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
         <v>33800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -2003,8 +2114,8 @@
       <c r="G49" s="3">
         <v>400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+      <c r="H49" s="3">
+        <v>400</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2021,8 +2132,11 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2056,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2091,20 +2208,23 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2120,14 +2240,17 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2161,26 +2284,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E54" s="3">
         <v>45800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>4800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2196,8 +2322,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2211,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2226,17 +2356,18 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2252,8 +2383,8 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -2261,17 +2392,20 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>100</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,8 +2421,8 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -2296,26 +2430,29 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>6600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,26 +2468,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E60" s="3">
         <v>7800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1600</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,8 +2506,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2401,20 +2544,23 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,14 +2576,17 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2471,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2506,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2541,26 +2696,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>28400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1600</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,8 +2734,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2591,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2626,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2661,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2696,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2731,26 +2902,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2766,8 +2940,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2801,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2836,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2871,26 +3054,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E76" s="3">
         <v>17400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>11200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2906,8 +3092,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2941,37 +3130,40 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43677</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43496</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43312</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43131</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2981,32 +3173,35 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-11800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3016,8 +3211,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,25 +3229,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3066,8 +3265,11 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3101,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3136,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3171,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3206,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3241,26 +3455,29 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-3100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1200</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3276,8 +3493,11 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3291,25 +3511,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3326,8 +3547,11 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3361,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3396,26 +3623,29 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
         <v>1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>2300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3431,8 +3661,11 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3446,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3481,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3516,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3551,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3586,25 +3829,28 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>8800</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3621,26 +3867,29 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3656,26 +3905,29 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3689,6 +3941,9 @@
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -1343,8 +1343,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-1400</v>
       </c>
       <c r="E26" s="3">
         <v>-14200</v>
@@ -1381,8 +1381,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-1000</v>
       </c>
       <c r="E27" s="3">
         <v>-11800</v>
@@ -1458,25 +1458,25 @@
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>-5800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1609,8 +1609,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-6800</v>
       </c>
       <c r="E33" s="3">
         <v>-11800</v>
@@ -1685,8 +1685,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-6800</v>
       </c>
       <c r="E35" s="3">
         <v>-11800</v>
@@ -3181,8 +3181,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-6800</v>
       </c>
       <c r="E81" s="3">
         <v>-11800</v>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,56 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43677</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43496</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43312</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43131</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -723,8 +724,11 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -732,26 +736,26 @@
         <v>900</v>
       </c>
       <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>600</v>
       </c>
       <c r="G8" s="3">
         <v>600</v>
       </c>
       <c r="H8" s="3">
+        <v>600</v>
+      </c>
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -761,20 +765,23 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,20 +806,23 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,19 +946,22 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>6200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -958,8 +978,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,35 +1044,36 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
-        <v>14200</v>
-      </c>
       <c r="F17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G17" s="3">
         <v>3700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1056,35 +1083,38 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1700</v>
       </c>
-      <c r="E18" s="3">
-        <v>-14100</v>
-      </c>
       <c r="F18" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1900</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,35 +1143,36 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,35 +1182,38 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
-        <v>-13200</v>
-      </c>
       <c r="F21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1600</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1224,35 +1264,38 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
-        <v>-14100</v>
-      </c>
       <c r="F23" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2000</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1271,26 +1317,26 @@
         <v>0</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
-      </c>
-      <c r="F24" s="3">
-        <v>-100</v>
       </c>
       <c r="G24" s="3">
         <v>-100</v>
       </c>
       <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3">
         <v>400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,35 +1387,38 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
-        <v>-14200</v>
-      </c>
       <c r="F26" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1376,35 +1428,38 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1000</v>
       </c>
-      <c r="E27" s="3">
-        <v>-11800</v>
-      </c>
       <c r="F27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,19 +1510,22 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E29" s="3">
         <v>-5800</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
+      <c r="F29" s="3">
+        <v>-11000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1478,8 +1539,8 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,35 +1633,38 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1604,35 +1674,38 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-11800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,35 +1756,38 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-11800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,40 +1797,43 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43677</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43496</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43312</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43131</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1843,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,29 +1879,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,20 +1918,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>3800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>2200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1860,8 +1950,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1869,28 +1959,31 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2000</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1500</v>
       </c>
       <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+      <c r="I43" s="3">
+        <v>1500</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1907,19 +2000,22 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1936,8 +2032,8 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -1945,29 +2041,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>3300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1983,29 +2082,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E46" s="3">
         <v>9100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>5200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>10600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>4400</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,25 +2123,28 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
-        <v>0</v>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
         <v>1300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+      <c r="H47" s="3">
+        <v>1300</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2059,28 +2164,31 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1500</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2097,19 +2205,22 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>33800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>400</v>
       </c>
       <c r="G49" s="3">
         <v>400</v>
@@ -2117,8 +2228,8 @@
       <c r="H49" s="3">
         <v>400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,23 +2328,26 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2243,14 +2363,17 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,29 +2410,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E54" s="3">
         <v>10300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>45800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2366,11 +2497,11 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2386,8 +2517,8 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -2395,20 +2526,23 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2424,8 +2558,8 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2433,29 +2567,32 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>6600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2471,29 +2608,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>7800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2509,8 +2649,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,23 +2690,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2579,14 +2725,17 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,29 +2854,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,29 +3076,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,29 +3240,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E76" s="3">
         <v>8100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,40 +3322,43 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43677</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43496</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43312</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43131</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3176,35 +3368,38 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-11800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,28 +3428,29 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
         <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,29 +3672,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-3100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,28 +3732,29 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,29 +3853,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-1500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>2300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,28 +4075,31 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E100" s="3">
         <v>3600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>8800</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3879,20 +4128,20 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-300</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3908,29 +4157,32 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,59 +665,60 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43677</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43496</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43312</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43131</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -727,38 +728,41 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="E8" s="3">
         <v>900</v>
       </c>
       <c r="F8" s="3">
+        <v>900</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>600</v>
       </c>
       <c r="H8" s="3">
         <v>600</v>
       </c>
       <c r="I8" s="3">
+        <v>600</v>
+      </c>
+      <c r="J8" s="3">
         <v>2400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -768,8 +772,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -779,12 +786,12 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,8 +816,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -820,12 +830,12 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,12 +980,12 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>6500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -981,8 +1001,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,38 +1071,39 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E17" s="3">
         <v>3400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1086,38 +1113,41 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-2500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-3100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1900</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,8 +1157,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,38 +1177,39 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,38 +1219,41 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2200</v>
       </c>
-      <c r="E21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
-        <v>-900</v>
-      </c>
       <c r="I21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J21" s="3">
         <v>1600</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>2000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1267,38 +1307,41 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2000</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1308,38 +1351,41 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>-100</v>
       </c>
       <c r="I24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J24" s="3">
         <v>400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1349,8 +1395,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,38 +1439,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-3000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1500</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1431,38 +1483,41 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-3000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1500</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1472,8 +1527,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,23 +1571,26 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-6600</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-5800</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-11000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1542,8 +1603,8 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,38 +1703,41 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,38 +1747,41 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-11800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-3000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1500</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1718,8 +1791,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,38 +1835,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-11800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-3000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1500</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1800,43 +1879,46 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43677</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43312</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43131</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1846,8 +1928,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,32 +1966,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,23 +2008,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>2200</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1953,8 +2043,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -1962,8 +2052,11 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1971,22 +2064,22 @@
         <v>2300</v>
       </c>
       <c r="E43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
-      </c>
-      <c r="H43" s="3">
-        <v>1500</v>
       </c>
       <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="J43" s="3">
+        <v>1500</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -2003,8 +2096,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2014,11 +2110,11 @@
       <c r="E44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -2035,8 +2131,8 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -2044,32 +2140,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2085,32 +2184,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E46" s="3">
         <v>9800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>9100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>10600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2137,17 +2242,17 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
         <v>1300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+      <c r="I47" s="3">
+        <v>1300</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -2167,31 +2272,34 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -2208,22 +2316,25 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>33800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -2231,8 +2342,8 @@
       <c r="I49" s="3">
         <v>400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,8 +2448,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2342,15 +2462,15 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2366,14 +2486,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,32 +2536,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E54" s="3">
         <v>11400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>45800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,8 +2618,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2500,11 +2631,11 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>1100</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2520,8 +2651,8 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2540,12 +2674,12 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2561,8 +2695,8 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -2570,32 +2704,35 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>6600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2611,32 +2748,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>1300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>7800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2652,8 +2792,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,26 +2836,29 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>3400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,14 +2874,17 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,32 +3012,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>28400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1600</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,32 +3250,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-21700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-20000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,32 +3426,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E76" s="3">
         <v>9600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>17400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>11200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,43 +3514,46 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43677</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43496</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43312</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43131</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3371,38 +3563,41 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-11800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-3000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1500</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3412,8 +3607,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,31 +3627,32 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
-        <v>200</v>
+      <c r="D83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>700</v>
+        <v>-800</v>
       </c>
       <c r="F83" s="3">
-        <v>900</v>
+        <v>-200</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,32 +3889,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-2700</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-1100</v>
+        <v>3200</v>
       </c>
       <c r="F89" s="3">
-        <v>-3100</v>
+        <v>4800</v>
       </c>
       <c r="G89" s="3">
-        <v>-2800</v>
+        <v>-5900</v>
       </c>
       <c r="H89" s="3">
-        <v>-1900</v>
+        <v>200</v>
       </c>
       <c r="I89" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="J89" s="3">
         <v>-1200</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,31 +3953,32 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="3">
+        <v>400</v>
+      </c>
+      <c r="F91" s="3">
+        <v>500</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,32 +4083,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>900</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>-1200</v>
+        <v>1000</v>
       </c>
       <c r="F94" s="3">
-        <v>1100</v>
+        <v>-1100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1300</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-1500</v>
+        <v>-2000</v>
       </c>
       <c r="I94" s="3">
+        <v>700</v>
+      </c>
+      <c r="J94" s="3">
         <v>2300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,31 +4321,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>6800</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>3600</v>
+        <v>6700</v>
       </c>
       <c r="F100" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>8800</v>
+        <v>-8700</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>8700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -4119,32 +4365,35 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>100</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F101" s="3">
+        <v>200</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4160,32 +4409,35 @@
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>5200</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>1300</v>
+        <v>11200</v>
       </c>
       <c r="F102" s="3">
-        <v>-1900</v>
+        <v>7400</v>
       </c>
       <c r="G102" s="3">
-        <v>-4100</v>
+        <v>-6000</v>
       </c>
       <c r="H102" s="3">
-        <v>5600</v>
+        <v>-10500</v>
       </c>
       <c r="I102" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,7 +665,7 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -674,130 +674,144 @@
     <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43677</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43496</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43312</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43131</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="E9" s="3">
+        <v>700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -819,29 +833,35 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="E10" s="3">
+        <v>400</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -863,8 +883,14 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +907,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +953,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,29 +1003,35 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-1000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>6500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,17 +1044,23 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1103,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1124,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-2500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-3100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1900</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,43 +1244,45 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>100</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
@@ -1222,52 +1290,64 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
-        <v>-3100</v>
+        <v>-1100</v>
       </c>
       <c r="F21" s="3">
-        <v>-1600</v>
+        <v>-2200</v>
       </c>
       <c r="G21" s="3">
         <v>-2200</v>
       </c>
       <c r="H21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1600</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>2000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,57 +1390,69 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>2000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1369,37 +1461,43 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1540,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-3000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1500</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-3000</v>
       </c>
       <c r="I27" s="3">
         <v>-800</v>
       </c>
       <c r="J27" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="L27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1500</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,29 +1690,35 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-6600</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>-5800</v>
       </c>
-      <c r="G29" s="3">
+      <c r="I29" s="3">
         <v>-11000</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1606,11 +1728,11 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1618,8 +1740,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1790,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,43 +1840,49 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-100</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
@@ -1750,52 +1890,64 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-8600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-3000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1500</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1990,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-8600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-3000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1500</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43677</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43496</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43312</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43131</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2119,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,38 +2139,40 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>6500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2011,29 +2185,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>2400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>3800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>2200</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,47 +2226,53 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2285,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2113,14 +2305,14 @@
       <c r="F44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G44" s="3">
-        <v>0</v>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
@@ -2134,47 +2326,53 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
-      </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>800</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
+        <v>900</v>
+      </c>
+      <c r="H45" s="3">
         <v>3300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,38 +2385,44 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>6000</v>
+      </c>
+      <c r="F46" s="3">
         <v>9400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>9800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>9100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>5200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>10600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2231,35 +2435,41 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>400</v>
+      </c>
+      <c r="E47" s="3">
+        <v>300</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
         <v>1300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2275,37 +2485,43 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
         <v>700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
@@ -2319,37 +2535,43 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
       </c>
       <c r="F49" s="3">
+        <v>200</v>
+      </c>
+      <c r="G49" s="3">
+        <v>200</v>
+      </c>
+      <c r="H49" s="3">
         <v>300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>33800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
       </c>
       <c r="J49" s="3">
         <v>400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>400</v>
+      </c>
+      <c r="L49" s="3">
+        <v>400</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2363,8 +2585,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2635,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2685,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,18 +2705,18 @@
       <c r="F52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,14 +2729,20 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,38 +2785,44 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8600</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F54" s="3">
         <v>10200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>11400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>10300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>45800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>12300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2583,8 +2835,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2859,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2879,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2634,14 +2896,14 @@
         <v>0</v>
       </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2654,17 +2916,23 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2677,15 +2945,15 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2698,47 +2966,53 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>6600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2751,38 +3025,44 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +3075,14 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2839,32 +3125,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>3400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2877,14 +3169,20 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3225,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3275,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3325,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>28400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3059,8 +3375,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3399,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3445,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3495,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3545,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,38 +3595,44 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-24600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-23900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-21700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-20000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>2500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3297,8 +3645,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3695,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3745,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,38 +3795,44 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F76" s="3">
         <v>7500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>9600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>8100</v>
-      </c>
-      <c r="G76" s="3">
-        <v>17400</v>
       </c>
       <c r="H76" s="3">
         <v>8100</v>
       </c>
       <c r="I76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J76" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K76" s="3">
         <v>11200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3473,8 +3845,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3895,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43677</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43496</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43312</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43131</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-8600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-3000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1500</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,37 +4024,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>-800</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="I83" s="3">
+        <v>900</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
@@ -3672,8 +4070,14 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4120,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4170,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4220,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4270,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,38 +4320,44 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>400</v>
       </c>
       <c r="E89" s="3">
-        <v>3200</v>
+        <v>-500</v>
       </c>
       <c r="F89" s="3">
-        <v>4800</v>
+        <v>300</v>
       </c>
       <c r="G89" s="3">
-        <v>-5900</v>
+        <v>-2700</v>
       </c>
       <c r="H89" s="3">
-        <v>200</v>
+        <v>-1100</v>
       </c>
       <c r="I89" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-1200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3936,8 +4370,14 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,37 +4394,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>400</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
@@ -3998,8 +4440,14 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4490,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,38 +4540,44 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1100</v>
+        <v>-2100</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>900</v>
       </c>
       <c r="H94" s="3">
-        <v>-2000</v>
+        <v>-1200</v>
       </c>
       <c r="I94" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K94" s="3">
         <v>700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>2300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4130,8 +4590,14 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4614,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4660,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4710,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4760,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,37 +4810,43 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>6700</v>
+        <v>-1900</v>
       </c>
       <c r="F100" s="3">
-        <v>3500</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>6800</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3600</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>-8700</v>
-      </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>8700</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
@@ -4368,38 +4860,44 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="F101" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>-100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4412,38 +4910,44 @@
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>100</v>
       </c>
       <c r="E102" s="3">
-        <v>11200</v>
+        <v>-2000</v>
       </c>
       <c r="F102" s="3">
-        <v>7400</v>
+        <v>-1900</v>
       </c>
       <c r="G102" s="3">
-        <v>-6000</v>
+        <v>5200</v>
       </c>
       <c r="H102" s="3">
-        <v>-10500</v>
+        <v>1300</v>
       </c>
       <c r="I102" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K102" s="3">
         <v>6400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4454,6 +4958,12 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,71 +665,72 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43677</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43496</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43312</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43131</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,47 +740,50 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E8" s="3">
         <v>300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
-      </c>
-      <c r="G8" s="3">
-        <v>900</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
-      </c>
-      <c r="J8" s="3">
-        <v>600</v>
       </c>
       <c r="K8" s="3">
         <v>600</v>
       </c>
       <c r="L8" s="3">
+        <v>600</v>
+      </c>
+      <c r="M8" s="3">
         <v>2400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -789,32 +793,35 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
@@ -839,32 +846,35 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>400</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,32 +1026,35 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-1000</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>6500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1050,8 +1070,8 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1059,8 +1079,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,47 +1152,48 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>600</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1176,47 +1203,50 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1900</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,47 +1279,48 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1296,47 +1330,50 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-2200</v>
       </c>
       <c r="G21" s="3">
         <v>-2200</v>
       </c>
       <c r="H21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-2300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1600</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>2000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,47 +1436,50 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1446,13 +1489,16 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1467,26 +1513,26 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
-      </c>
-      <c r="J24" s="3">
-        <v>-100</v>
       </c>
       <c r="K24" s="3">
         <v>-100</v>
       </c>
       <c r="L24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M24" s="3">
         <v>400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>500</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,47 +1595,50 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1500</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1596,47 +1648,50 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1500</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1646,8 +1701,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,32 +1754,35 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
+      <c r="E29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-6600</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>-5800</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-11000</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1734,8 +1795,8 @@
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,47 +1913,50 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
       <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1896,47 +1966,50 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-11800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1500</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1946,8 +2019,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,47 +2072,50 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-11800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1500</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2046,52 +2125,55 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43677</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43496</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43312</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43131</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2101,8 +2183,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,41 +2227,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>800</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2191,8 +2278,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2200,23 +2290,23 @@
         <v>100</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
         <v>2400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>3800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>2200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2232,8 +2322,8 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="P42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2241,40 +2331,43 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E43" s="3">
         <v>3700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2300</v>
       </c>
       <c r="G43" s="3">
         <v>2300</v>
       </c>
       <c r="H43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
-      </c>
-      <c r="K43" s="3">
-        <v>1500</v>
       </c>
       <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
+      <c r="M43" s="3">
+        <v>1500</v>
       </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
@@ -2291,8 +2384,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2311,11 +2407,11 @@
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -2332,8 +2428,8 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -2341,8 +2437,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2350,32 +2449,32 @@
         <v>700</v>
       </c>
       <c r="E45" s="3">
+        <v>700</v>
+      </c>
+      <c r="F45" s="3">
         <v>800</v>
-      </c>
-      <c r="F45" s="3">
-        <v>900</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>3300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2391,41 +2490,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E46" s="3">
         <v>6300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2441,37 +2543,40 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
         <v>400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>300</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="K47" s="3">
         <v>1300</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
+      <c r="L47" s="3">
+        <v>1300</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>3</v>
@@ -2491,40 +2596,43 @@
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
         <v>1700</v>
       </c>
       <c r="F48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G48" s="3">
         <v>700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
+      <c r="M48" s="3">
+        <v>0</v>
       </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
@@ -2541,8 +2649,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2550,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
@@ -2559,13 +2670,13 @@
         <v>200</v>
       </c>
       <c r="H49" s="3">
+        <v>200</v>
+      </c>
+      <c r="I49" s="3">
         <v>300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>33800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -2573,8 +2684,8 @@
       <c r="L49" s="3">
         <v>400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>400</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2591,8 +2702,11 @@
       <c r="R49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2808,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2711,15 +2831,15 @@
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2735,14 +2855,17 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,41 +2914,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E54" s="3">
         <v>8600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>10200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>11400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>45800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>4800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,8 +2967,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3011,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2902,11 +3033,11 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2922,8 +3053,8 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -2931,8 +3062,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2951,12 +3085,12 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2972,8 +3106,8 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -2981,41 +3115,44 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3031,41 +3168,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3081,8 +3221,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,35 +3274,38 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>800</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>3400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3175,14 +3321,17 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,41 +3486,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
         <v>4300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>28400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3381,8 +3539,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,41 +3772,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-23900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-21700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-20000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-13100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3651,8 +3825,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,41 +3984,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E76" s="3">
         <v>4300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>7500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>9600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3200</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3851,8 +4037,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,52 +4090,55 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43677</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43496</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43312</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43131</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3956,47 +4148,50 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-11800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1500</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4006,8 +4201,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4224,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4035,31 +4234,31 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,41 +4540,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-3100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4376,8 +4593,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4616,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4405,31 +4626,31 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
@@ -4446,8 +4667,11 @@
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,41 +4773,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-2100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>2300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4826,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5059,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,31 +5071,31 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-1900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>6800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>8700</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
@@ -4866,8 +5112,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,32 +5124,32 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3">
         <v>-100</v>
       </c>
       <c r="G101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4916,41 +5165,44 @@
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>5200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>6400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4964,6 +5216,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,75 +665,75 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43677</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43496</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43312</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43131</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -743,50 +743,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>900</v>
       </c>
       <c r="I8" s="3">
         <v>900</v>
       </c>
       <c r="J8" s="3">
+        <v>900</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>600</v>
       </c>
       <c r="L8" s="3">
         <v>600</v>
       </c>
       <c r="M8" s="3">
+        <v>600</v>
+      </c>
+      <c r="N8" s="3">
         <v>2400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,8 +799,11 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -807,24 +813,24 @@
       <c r="E9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
@@ -849,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,24 +869,24 @@
       <c r="E10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -976,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1038,26 +1057,26 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1000</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3">
         <v>6500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,8 +1092,8 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1082,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,50 +1178,51 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
         <v>600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1206,50 +1232,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E18" s="3">
         <v>1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1900</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1259,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,50 +1312,51 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
       </c>
       <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1333,50 +1366,53 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
         <v>1400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-2200</v>
       </c>
       <c r="H21" s="3">
         <v>-2200</v>
       </c>
       <c r="I21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1600</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3">
         <v>2000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1439,50 +1478,53 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
         <v>1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-2300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2000</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1492,17 +1534,20 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>600</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1516,26 +1561,26 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-100</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N24" s="3">
         <v>400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>500</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,50 +1646,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
         <v>800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-2300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1500</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,50 +1702,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
         <v>800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-2200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1500</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1704,8 +1758,11 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1768,24 +1828,24 @@
       <c r="E29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-6600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-5800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-11000</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1798,8 +1858,8 @@
       <c r="O29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,50 +1982,53 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
       </c>
       <c r="N32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1969,50 +2038,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
         <v>800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-2200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-11800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1500</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,8 +2094,11 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,50 +2150,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
         <v>800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-2200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-11800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1500</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2128,55 +2206,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43677</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43496</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43312</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43131</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2186,8 +2267,11 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,44 +2313,45 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2281,35 +2367,38 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E42" s="3">
         <v>100</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>2400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>1000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>3800</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>2200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2325,8 +2414,8 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -2334,43 +2423,46 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E43" s="3">
         <v>5200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>3700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2300</v>
       </c>
       <c r="H43" s="3">
         <v>2300</v>
       </c>
       <c r="I43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1500</v>
       </c>
       <c r="M43" s="3">
         <v>1500</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
+      <c r="N43" s="3">
+        <v>1500</v>
       </c>
       <c r="O43" s="3" t="s">
         <v>3</v>
@@ -2387,8 +2479,11 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2410,11 +2505,11 @@
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J44" s="3">
-        <v>0</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
@@ -2431,8 +2526,8 @@
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -2440,44 +2535,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>700</v>
       </c>
       <c r="F45" s="3">
+        <v>700</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>900</v>
       </c>
       <c r="H45" s="3">
         <v>900</v>
       </c>
       <c r="I45" s="3">
+        <v>900</v>
+      </c>
+      <c r="J45" s="3">
         <v>3300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2493,44 +2591,47 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E46" s="3">
         <v>6800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>9400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>5200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2546,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2555,31 +2659,31 @@
         <v>0</v>
       </c>
       <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>1300</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>1300</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
@@ -2599,43 +2703,46 @@
       <c r="S47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1700</v>
       </c>
       <c r="F48" s="3">
         <v>1700</v>
       </c>
       <c r="G48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H48" s="3">
         <v>700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
+      <c r="N48" s="3">
+        <v>0</v>
       </c>
       <c r="O48" s="3" t="s">
         <v>3</v>
@@ -2652,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2664,7 +2774,7 @@
         <v>100</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
@@ -2673,13 +2783,13 @@
         <v>200</v>
       </c>
       <c r="I49" s="3">
+        <v>200</v>
+      </c>
+      <c r="J49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>33800</v>
-      </c>
-      <c r="K49" s="3">
-        <v>400</v>
       </c>
       <c r="L49" s="3">
         <v>400</v>
@@ -2687,8 +2797,8 @@
       <c r="M49" s="3">
         <v>400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
+      <c r="N49" s="3">
+        <v>400</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>3</v>
@@ -2705,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2834,15 +2953,15 @@
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,14 +2977,17 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,44 +3039,47 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E54" s="3">
         <v>8400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>10200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>11400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>10300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>45800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>10200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>4800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2970,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3036,11 +3166,11 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3186,8 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -3065,13 +3195,16 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -3088,12 +3221,12 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3109,8 +3242,8 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -3118,44 +3251,47 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3171,44 +3307,47 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3363,11 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3277,38 +3419,41 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>700</v>
+      </c>
+      <c r="E62" s="3">
         <v>800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>3400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3324,14 +3469,17 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
         <v>3300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>28400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3542,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,44 +3945,47 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-23900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-21700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-20000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-13100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3828,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,44 +4169,47 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E76" s="3">
         <v>5100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>7500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>9600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>8100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>17400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3200</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4040,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,55 +4281,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43677</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43496</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43312</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43131</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4151,50 +4342,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
         <v>800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-2200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-11800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1500</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4204,8 +4398,11 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4237,31 +4435,31 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,44 +4756,47 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-3100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4629,31 +4849,31 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
@@ -4670,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,44 +5002,47 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-2100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>2300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4829,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5074,31 +5319,31 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>3600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>8700</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
@@ -5115,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5127,32 +5375,32 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
         <v>-100</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5168,44 +5416,47 @@
       <c r="S101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>5200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>6400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5219,6 +5470,9 @@
         <v>3</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ATIF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="92">
   <si>
     <t>ATIF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,79 @@
     <col min="1" max="1" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43677</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43496</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43312</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43131</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
@@ -746,53 +747,56 @@
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>900</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
       </c>
       <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
-      </c>
-      <c r="L8" s="3">
-        <v>600</v>
       </c>
       <c r="M8" s="3">
         <v>600</v>
       </c>
       <c r="N8" s="3">
+        <v>600</v>
+      </c>
+      <c r="O8" s="3">
         <v>2400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
@@ -802,8 +806,11 @@
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,24 +823,24 @@
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -872,24 +882,24 @@
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1060,26 +1080,26 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
         <v>6500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1095,8 +1115,8 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,53 +1205,54 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,53 +1262,56 @@
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-2500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1900</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,53 +1346,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
       </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1369,53 +1403,56 @@
       <c r="T20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-2200</v>
       </c>
       <c r="I21" s="3">
         <v>-2200</v>
       </c>
       <c r="J21" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1600</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3">
         <v>2000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,53 +1521,56 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2000</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,20 +1580,23 @@
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>600</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1564,26 +1610,26 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>-100</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O24" s="3">
         <v>400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>500</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,53 +1698,56 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-3000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1500</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1705,53 +1757,56 @@
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-3000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1500</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1761,8 +1816,11 @@
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1831,24 +1892,24 @@
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-6600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-5800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-11000</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1861,8 +1922,8 @@
       <c r="P29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,53 +2052,56 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
       </c>
       <c r="O32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,53 +2111,56 @@
       <c r="T32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-6800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1500</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2097,8 +2170,11 @@
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,53 +2229,56 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-6800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1500</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2209,58 +2288,61 @@
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43677</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43496</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43312</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43131</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2270,8 +2352,11 @@
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,47 +2400,48 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2370,38 +2457,41 @@
       <c r="T41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>100</v>
+      </c>
+      <c r="E42" s="3">
         <v>300</v>
-      </c>
-      <c r="E42" s="3">
-        <v>100</v>
       </c>
       <c r="F42" s="3">
         <v>100</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>2400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>3800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2417,8 +2507,8 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -2426,46 +2516,49 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>5300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>5200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>3400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2300</v>
       </c>
       <c r="I43" s="3">
         <v>2300</v>
       </c>
       <c r="J43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1500</v>
       </c>
       <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
+      <c r="O43" s="3">
+        <v>1500</v>
       </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
@@ -2482,37 +2575,40 @@
       <c r="T43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3">
-        <v>0</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
@@ -2529,8 +2625,8 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -2538,47 +2634,50 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>700</v>
       </c>
       <c r="F45" s="3">
         <v>700</v>
       </c>
       <c r="G45" s="3">
+        <v>700</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
-      </c>
-      <c r="H45" s="3">
-        <v>900</v>
       </c>
       <c r="I45" s="3">
         <v>900</v>
       </c>
       <c r="J45" s="3">
+        <v>900</v>
+      </c>
+      <c r="K45" s="3">
         <v>3300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2594,47 +2693,50 @@
       <c r="T45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
         <v>6700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>9400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>9800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>5200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2662,31 +2767,31 @@
         <v>0</v>
       </c>
       <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
         <v>400</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>300</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L47" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="M47" s="3">
         <v>1300</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>1300</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2706,46 +2811,49 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1700</v>
       </c>
       <c r="G48" s="3">
         <v>1700</v>
       </c>
       <c r="H48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I48" s="3">
         <v>700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
+      <c r="O48" s="3">
+        <v>0</v>
       </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
@@ -2762,8 +2870,11 @@
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2777,7 +2888,7 @@
         <v>100</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
@@ -2786,13 +2897,13 @@
         <v>200</v>
       </c>
       <c r="J49" s="3">
+        <v>200</v>
+      </c>
+      <c r="K49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33800</v>
-      </c>
-      <c r="L49" s="3">
-        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>400</v>
@@ -2800,8 +2911,8 @@
       <c r="N49" s="3">
         <v>400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>3</v>
+      <c r="O49" s="3">
+        <v>400</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>3</v>
@@ -2818,8 +2929,11 @@
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,41 +3047,44 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2980,14 +3100,17 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,47 +3165,50 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
         <v>8200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>10200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>11400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>10300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>4800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3098,8 +3224,11 @@
       <c r="T54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,13 +3272,14 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
+      <c r="D57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E57" s="3">
         <v>0</v>
@@ -3169,11 +3300,11 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3189,8 +3320,8 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -3198,38 +3329,41 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
         <v>0</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3245,8 +3379,8 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,47 +3388,50 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3310,47 +3447,50 @@
       <c r="T59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1600</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3366,8 +3506,11 @@
       <c r="T60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3565,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3431,32 +3577,32 @@
         <v>700</v>
       </c>
       <c r="E62" s="3">
+        <v>700</v>
+      </c>
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>3400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,14 +3618,17 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,47 +3801,50 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>28400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3702,8 +3860,11 @@
       <c r="T66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,47 +4119,50 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-27700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-24400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-24100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-24900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-24600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-23900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-21700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-20000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-13100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2500</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4004,8 +4178,11 @@
       <c r="T72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,47 +4355,50 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>4800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>9600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>8100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3200</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4228,8 +4414,11 @@
       <c r="T76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,58 +4473,61 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43677</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43496</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43312</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43131</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4345,53 +4537,56 @@
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-6800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1500</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4401,8 +4596,11 @@
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4621,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,31 +4637,31 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
       <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,47 +4973,50 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4815,8 +5032,11 @@
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5057,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4852,31 +5073,31 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
@@ -4893,8 +5114,11 @@
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,47 +5232,50 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-2100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>2300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5061,8 +5291,11 @@
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,13 +5550,16 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -5322,31 +5568,31 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>3600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>8700</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
@@ -5363,8 +5609,11 @@
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5378,32 +5627,32 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>-100</v>
       </c>
       <c r="I101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5419,47 +5668,50 @@
       <c r="T101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-4100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>6400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5473,6 +5725,9 @@
         <v>3</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
